--- a/Project Outputs for be_mdv/BOM/be_mdv.xlsx
+++ b/Project Outputs for be_mdv/BOM/be_mdv.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YandexDisk2\YandexDisk\OAI_NSU\Altium_projects\KVV\be_mdv\Project Outputs for be_mdv\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YandexDisk2\YandexDisk\OAI_NSU\Altium_projects\KVV\be_mvd\Project Outputs for be_mdv\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="17910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="16950"/>
   </bookViews>
   <sheets>
     <sheet name="be_mdv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Designator</t>
   </si>
@@ -44,7 +44,25 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Х1, Х2</t>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>Header, 20-Pin, Dual row</t>
+  </si>
+  <si>
+    <t>PLD2-20</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>Header, 12-Pin, Dual row</t>
+  </si>
+  <si>
+    <t>PLD2-12</t>
+  </si>
+  <si>
+    <t>X1, X2</t>
   </si>
   <si>
     <t>Соединитель угловой на плату</t>
@@ -53,25 +71,16 @@
     <t>СНП411-31</t>
   </si>
   <si>
-    <t>X1, X2</t>
-  </si>
-  <si>
-    <t>Header, 20-Pin, Dual row</t>
-  </si>
-  <si>
-    <t>PLD2-20</t>
-  </si>
-  <si>
-    <t>VT1, VT2, VT3, VT4, VT5, VT6, VT7, VT8, VT9, VT10, VT11, VT12, VT13, VT14, VT15, VT16</t>
-  </si>
-  <si>
-    <t>Биполярный транзистор</t>
-  </si>
-  <si>
-    <t>2Т3117А/ПК "ОСМ"</t>
-  </si>
-  <si>
-    <t>VD1, VD2, VD3, VD4, VD5, VD6, VD7, VD8, VD9, VD10, VD11, VD12, VD13, VD14, VD15, VD16</t>
+    <t>VT1, VT2, VT3, VT4, VT5, VT6, VT7, VT8</t>
+  </si>
+  <si>
+    <t>Транзисторная сборка</t>
+  </si>
+  <si>
+    <t>1НТ251А2 ОС</t>
+  </si>
+  <si>
+    <t>VD1, VD2, VD3, VD4, VD5, VD6, VD7, VD8</t>
   </si>
   <si>
     <t>Диодная матрица</t>
@@ -95,7 +104,7 @@
     <t>SMD-резистор</t>
   </si>
   <si>
-    <t>Р1-12-0.125 ОСМ</t>
+    <t>ОСМ Р1-12</t>
   </si>
   <si>
     <t>1</t>
@@ -107,21 +116,24 @@
     <t>50к</t>
   </si>
   <si>
-    <t>R3, R6, R11, R12, R13, R14, R15, R16, R22, R25, R30, R31, R32, R33, R34, R35, R41, R44, R49, R50, R51, R52, R53, R54, R60, R63, R68, R69, R70, R71, R72, R73</t>
-  </si>
-  <si>
-    <t>Резистор</t>
+    <t>R5, R12, R14, R16, R24, R31, R33, R35, R43, R50, R52, R54, R62, R69, R71, R73</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R2, R3, R4, R6, R7, R8, R9, R10, R21, R22, R23, R25, R26, R27, R28, R29, R40, R41, R42, R44, R45, R46, R47, R48, R59, R60, R61, R63, R64, R65, R66, R67</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>R1, R11, R13, R15, R20, R30, R32, R34, R39, R49, R51, R53, R58, R68, R70, R72</t>
   </si>
   <si>
     <t>1к</t>
   </si>
   <si>
-    <t>R1, R2, R4, R5, R7, R8, R9, R10, R20, R21, R23, R24, R26, R27, R28, R29, R39, R40, R42, R43, R45, R46, R47, R48, R58, R59, R61, R62, R64, R65, R66, R67</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
     <t>K1, K2, K3, K4, K5, K6, K7, K8</t>
   </si>
   <si>
@@ -129,6 +141,18 @@
   </si>
   <si>
     <t>РПС45-1-Т-ОС РС4.520.756-11</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C31, C32</t>
+  </si>
+  <si>
+    <t>SMD-конденсатор</t>
+  </si>
+  <si>
+    <t>К10-79</t>
+  </si>
+  <si>
+    <t>0,22мкФ</t>
   </si>
 </sst>
 </file>
@@ -481,7 +505,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -537,11 +561,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -552,11 +576,11 @@
         <v>13</v>
       </c>
       <c r="D4" s="4">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -567,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -582,7 +606,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -597,77 +621,126 @@
         <v>22</v>
       </c>
       <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4">
         <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4">
-        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4">
         <v>8</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
